--- a/LH_REVIEWS/LH_SIQ_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SIQ_REVIEWS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
-    <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
+    <sheet name="REVIEW-SHEET" sheetId="1" r:id="rId1"/>
+    <sheet name="VERSION-HISTORY" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89" count="89">
   <si>
     <t>ID</t>
   </si>
@@ -160,57 +160,203 @@
   </si>
   <si>
     <t>I separated the Review Comments into individual rows for better control and organization.</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehad Ashry </t>
+  </si>
+  <si>
+    <t>14/4/2025</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_002</t>
+  </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_17: Does this feature mean to permanently delete a user or just suspend his account? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_17: Does this feature mean to permanently delete a user or just suspend his account? &gt;&gt; needs to be more clear </t>
+  </si>
+  <si>
+    <t>Clarify SIQ_17 &gt;&gt; Recommendation: Should the admin be able to deactivate or remove a user from the system?</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>14/4/2026</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_003</t>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_18: Does this feature mean to permanently delete a user or just suspend his account? </t>
+  </si>
+  <si>
+    <t>Clarify SIQ_18 &gt;&gt; Recommendation: Should the admin be able to deactivate or remove a user from the system?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_18: </t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_004</t>
+  </si>
+  <si>
+    <t>SIQ_19:  Could be merged with the login question (SIQ_18) or clarified to avoid redundancy</t>
+  </si>
+  <si>
+    <t>Clarify SIQ_19 &gt;&gt; Recommendation: Should access to the system be restricted to users who have registered?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_20: not well structured </t>
+  </si>
+  <si>
+    <t>Rephrase SIQ_20 &gt;&gt; Recommendation: Should the system display a simple error message if login information is incorrect or incomplete?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_21: not well structured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rephrase SIQ_21 &gt;&gt; Recommendation: Should user passwords be stored securely using basic hashing methods? </t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_005</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_006</t>
+  </si>
+  <si>
+    <t>Rephrase SIQ_22 &gt;&gt; Recommendation: Should the registration form require all fields (email, username, and password) to be filled out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_22: not well structured </t>
+  </si>
+  <si>
+    <t>SIQ_23: What exactly is meant by 'Special Characters' ?</t>
+  </si>
+  <si>
+    <t>Clarify and Rephrase SIQ_23 &gt;&gt; Recommendation: Should usernames follow specific rules such as 4–20 characters and only contain letters and numbers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_24: does not clarify what exactly is counted as repeated </t>
+  </si>
+  <si>
+    <t>Clarify and Rephrase SIQ_24 &gt;&gt; Recommendation: Should the system prevent multiple registrations using the same email or username?</t>
+  </si>
+  <si>
+    <t>SIQ_24:Doesn’t define what counts as a duplicate—email? username?</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_007</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIQ_25: Does not define what 'specific format' </t>
+  </si>
+  <si>
+    <t>Clarify and Rephrase SIQ_25 &gt;&gt; Recommendation: Should the system automatically assign user IDs in a simple, consistent format (e.g., U001, U002)?</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed SIQ v1.4 </t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_010</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_011</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_012</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_013</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_014</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_015</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_016</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_017</t>
+  </si>
+  <si>
+    <t>LH_REVIEW_SIQ_018</t>
+  </si>
+  <si>
+    <t>v1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="14" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="15" formatCode="d-mmm-yy"/>
+  </numFmts>
+  <fonts count="8">
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
+      <name val="Roboto"/>
       <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="Roboto"/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,14 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor rgb="FF5C9BD5"/>
+        <bgColor rgb="FF5C9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -248,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -258,13 +409,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -276,21 +427,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -301,7 +437,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -316,7 +478,7 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -325,11 +487,9 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -343,64 +503,11 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -408,96 +515,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
 </styleSheet>
 </file>
 
@@ -754,291 +866,540 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="52">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="92.140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="12.855469" style="1"/>
+    <col min="2" max="2" customWidth="1" width="19.425781" style="0"/>
+    <col min="3" max="3" customWidth="1" width="13.140625" style="0"/>
+    <col min="4" max="4" customWidth="1" width="9.855469" style="0"/>
+    <col min="5" max="5" customWidth="1" width="44.0" style="0"/>
+    <col min="6" max="6" customWidth="1" width="92.140625" style="0"/>
+    <col min="7" max="7" customWidth="1" width="16.0" style="0"/>
+    <col min="8" max="8" customWidth="1" bestFit="1" width="17.0" style="0"/>
+    <col min="9" max="9" customWidth="1" width="25.855469" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="8:8" s="2" ht="18.75" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="26">
-        <v>45751</v>
-      </c>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="8:8" ht="28.2">
+      <c r="A2" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" s="11" ht="15.5" customFormat="1">
+      <c r="A3" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="19" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" ht="75.0">
+      <c r="A4" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="22" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" ht="30.0">
+      <c r="A5" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="19" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" ht="60.0">
+      <c r="A6" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" ht="75.0">
+      <c r="A7" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="19" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" ht="45.0">
+      <c r="A8" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="22" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" ht="30.0">
+      <c r="A9" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="19" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" ht="75.0">
+      <c r="A10" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="45.0">
+      <c r="A11" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" ht="30.2">
+      <c r="A12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="8:8" ht="30.2">
+      <c r="A13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="8:8" ht="30.2">
+      <c r="A14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="8:8" ht="28.2">
+      <c r="A15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="8:8" ht="30.2">
+      <c r="A16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="8:8" ht="30.2">
+      <c r="A17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="8:8" ht="30.2">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="8:8" ht="30.2">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-  </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="I2:I12">
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="I2:I12">
       <formula1>"open,closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="H12">
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="H12">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="H2:H11">
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="H2:H11">
       <formula1>"open,in progress,closed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1047,68 +1408,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="24.855469" style="0"/>
+    <col min="2" max="2" customWidth="1" width="23.285156" style="0"/>
+    <col min="3" max="3" customWidth="1" width="48.710938" style="0"/>
+    <col min="4" max="4" customWidth="1" width="21.0" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="8:8" ht="20.25">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="8:8" ht="18.75">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="56.25">
-      <c r="A3" s="16" t="s">
+      <c r="D2" s="24">
+        <v>45754.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" ht="56.25">
+      <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="D3" s="27">
+        <v>45759.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" ht="20.55">
+      <c r="A4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="24">
+        <v>45761.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
